--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt5a-Ror1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Wnt5a-Ror1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -449,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T9"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -555,28 +552,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.2680613333333333</v>
+        <v>0.1350193333333333</v>
       </c>
       <c r="N2">
-        <v>0.804184</v>
+        <v>0.405058</v>
       </c>
       <c r="O2">
-        <v>0.01087746901445587</v>
+        <v>0.004770957739100914</v>
       </c>
       <c r="P2">
-        <v>0.01087746901445587</v>
+        <v>0.004770957739100915</v>
       </c>
       <c r="Q2">
-        <v>2.797017180257777</v>
+        <v>1.408824578704444</v>
       </c>
       <c r="R2">
-        <v>25.17315462232</v>
+        <v>12.67942120834</v>
       </c>
       <c r="S2">
-        <v>0.01056321020958364</v>
+        <v>0.004633120943133651</v>
       </c>
       <c r="T2">
-        <v>0.01056321020958364</v>
+        <v>0.004633120943133653</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -623,10 +620,10 @@
         <v>37.004618</v>
       </c>
       <c r="O3">
-        <v>0.5005279708210756</v>
+        <v>0.4358572565646723</v>
       </c>
       <c r="P3">
-        <v>0.5005279708210755</v>
+        <v>0.4358572565646723</v>
       </c>
       <c r="Q3">
         <v>128.7050628896822</v>
@@ -635,10 +632,10 @@
         <v>1158.34556600714</v>
       </c>
       <c r="S3">
-        <v>0.4860673162601374</v>
+        <v>0.4232649908123294</v>
       </c>
       <c r="T3">
-        <v>0.4860673162601374</v>
+        <v>0.4232649908123295</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,33 +676,33 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>12.03244533333333</v>
+        <v>15.83036566666667</v>
       </c>
       <c r="N4">
-        <v>36.097336</v>
+        <v>47.491097</v>
       </c>
       <c r="O4">
-        <v>0.4882559884857225</v>
+        <v>0.5593717856962268</v>
       </c>
       <c r="P4">
-        <v>0.4882559884857224</v>
+        <v>0.5593717856962268</v>
       </c>
       <c r="Q4">
-        <v>125.5494625030311</v>
+        <v>165.1778874216455</v>
       </c>
       <c r="R4">
-        <v>1129.94516252728</v>
+        <v>1486.60098679481</v>
       </c>
       <c r="S4">
-        <v>0.4741498813380655</v>
+        <v>0.5432110861236953</v>
       </c>
       <c r="T4">
-        <v>0.4741498813380655</v>
+        <v>0.5432110861236953</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B5" t="s">
         <v>22</v>
@@ -714,25 +711,25 @@
         <v>23</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>10.43424333333333</v>
+        <v>0.310422</v>
       </c>
       <c r="H5">
-        <v>31.30273</v>
+        <v>0.9312659999999999</v>
       </c>
       <c r="I5">
-        <v>0.9711091978791583</v>
+        <v>0.02889080212084161</v>
       </c>
       <c r="J5">
-        <v>0.9711091978791584</v>
+        <v>0.02889080212084161</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -741,28 +738,28 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.008343666666666668</v>
+        <v>0.1350193333333333</v>
       </c>
       <c r="N5">
-        <v>0.025031</v>
+        <v>0.405058</v>
       </c>
       <c r="O5">
-        <v>0.0003385716787462133</v>
+        <v>0.004770957739100914</v>
       </c>
       <c r="P5">
-        <v>0.0003385716787462133</v>
+        <v>0.004770957739100915</v>
       </c>
       <c r="Q5">
-        <v>0.08705984829222223</v>
+        <v>0.041912971492</v>
       </c>
       <c r="R5">
-        <v>0.78353863463</v>
+        <v>0.3772167434279999</v>
       </c>
       <c r="S5">
-        <v>0.0003287900713718353</v>
+        <v>0.0001378367959672624</v>
       </c>
       <c r="T5">
-        <v>0.0003287900713718353</v>
+        <v>0.0001378367959672624</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,7 +773,7 @@
         <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>2</v>
@@ -797,34 +794,34 @@
         <v>0.02889080212084161</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M6">
-        <v>0.2680613333333333</v>
+        <v>12.33487266666667</v>
       </c>
       <c r="N6">
-        <v>0.804184</v>
+        <v>37.004618</v>
       </c>
       <c r="O6">
-        <v>0.01087746901445587</v>
+        <v>0.4358572565646723</v>
       </c>
       <c r="P6">
-        <v>0.01087746901445587</v>
+        <v>0.4358572565646723</v>
       </c>
       <c r="Q6">
-        <v>0.08321213521599999</v>
+        <v>3.829015842932</v>
       </c>
       <c r="R6">
-        <v>0.7489092169439999</v>
+        <v>34.461142586388</v>
       </c>
       <c r="S6">
-        <v>0.0003142588048722304</v>
+        <v>0.01259226575234284</v>
       </c>
       <c r="T6">
-        <v>0.0003142588048722304</v>
+        <v>0.01259226575234284</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,7 +835,7 @@
         <v>23</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -865,152 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>12.33487266666667</v>
+        <v>15.83036566666667</v>
       </c>
       <c r="N7">
-        <v>37.004618</v>
+        <v>47.491097</v>
       </c>
       <c r="O7">
-        <v>0.5005279708210756</v>
+        <v>0.5593717856962268</v>
       </c>
       <c r="P7">
-        <v>0.5005279708210755</v>
+        <v>0.5593717856962268</v>
       </c>
       <c r="Q7">
-        <v>3.829015842932</v>
+        <v>4.914093770977999</v>
       </c>
       <c r="R7">
-        <v>34.461142586388</v>
+        <v>44.22684393880199</v>
       </c>
       <c r="S7">
-        <v>0.01446065456093808</v>
+        <v>0.01616069957253151</v>
       </c>
       <c r="T7">
-        <v>0.01446065456093808</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G8">
-        <v>0.310422</v>
-      </c>
-      <c r="H8">
-        <v>0.9312659999999999</v>
-      </c>
-      <c r="I8">
-        <v>0.02889080212084161</v>
-      </c>
-      <c r="J8">
-        <v>0.02889080212084161</v>
-      </c>
-      <c r="K8">
-        <v>3</v>
-      </c>
-      <c r="L8">
-        <v>1</v>
-      </c>
-      <c r="M8">
-        <v>12.03244533333333</v>
-      </c>
-      <c r="N8">
-        <v>36.097336</v>
-      </c>
-      <c r="O8">
-        <v>0.4882559884857225</v>
-      </c>
-      <c r="P8">
-        <v>0.4882559884857224</v>
-      </c>
-      <c r="Q8">
-        <v>3.735135745264</v>
-      </c>
-      <c r="R8">
-        <v>33.616221707376</v>
-      </c>
-      <c r="S8">
-        <v>0.01410610714765693</v>
-      </c>
-      <c r="T8">
-        <v>0.01410610714765693</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G9">
-        <v>0.310422</v>
-      </c>
-      <c r="H9">
-        <v>0.9312659999999999</v>
-      </c>
-      <c r="I9">
-        <v>0.02889080212084161</v>
-      </c>
-      <c r="J9">
-        <v>0.02889080212084161</v>
-      </c>
-      <c r="K9">
-        <v>1</v>
-      </c>
-      <c r="L9">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M9">
-        <v>0.008343666666666668</v>
-      </c>
-      <c r="N9">
-        <v>0.025031</v>
-      </c>
-      <c r="O9">
-        <v>0.0003385716787462133</v>
-      </c>
-      <c r="P9">
-        <v>0.0003385716787462133</v>
-      </c>
-      <c r="Q9">
-        <v>0.002590057694</v>
-      </c>
-      <c r="R9">
-        <v>0.023310519246</v>
-      </c>
-      <c r="S9">
-        <v>9.781607374378004E-06</v>
-      </c>
-      <c r="T9">
-        <v>9.781607374378004E-06</v>
+        <v>0.01616069957253151</v>
       </c>
     </row>
   </sheetData>
